--- a/CollectionSoftware3/ARTHI STORE(ARUM).xlsx
+++ b/CollectionSoftware3/ARTHI STORE(ARUM).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,22 +431,6 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/CollectionSoftware3/ARTHI STORE(ARUM).xlsx
+++ b/CollectionSoftware3/ARTHI STORE(ARUM).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A0:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,14 +421,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="0"/>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023-07-18</t>
+          <t>24-07-2023</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>2239</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>

--- a/CollectionSoftware3/ARTHI STORE(ARUM).xlsx
+++ b/CollectionSoftware3/ARTHI STORE(ARUM).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:B1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,7 +421,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="0"/>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
@@ -429,7 +428,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
